--- a/转json/Tables/Item.xlsx
+++ b/转json/Tables/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\Go\转json\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D14929-76CE-4A8B-8327-525EFA448A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06642B-7C2B-4EA6-A40E-44946ADA2D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="4275" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>颜色</t>
-  </si>
-  <si>
-    <t>叠加</t>
-  </si>
-  <si>
-    <t>图片路径</t>
   </si>
   <si>
     <t>红药水</t>
@@ -123,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>陈年红药水</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,6 +127,165 @@
   </si>
   <si>
     <t>陈年大杯蓝药水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得两只羊的力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤五只牛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二羊之力符咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五牛之力符咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得五只牛的力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型
+1：普通道具
+2：装备
+3：任务道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>canDestroy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可销毁（比如说任务道具）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径，UI显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色（等级象征，作为道具名称颜色）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包最大叠加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回口大的血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回口大的蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体路径，3d显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue_Bottle_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/Blue_Bottle_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue_Bottle_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue_Bottle_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Blue_Bottle_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>useFunc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#1#1&amp;2#1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用方法
+为Functions表的ID
+-1表示不可使用
+有多个行为用&amp;分隔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -159,6 +305,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,12 +313,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,6 +385,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -246,13 +421,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -530,21 +721,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="31.25" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -552,22 +748,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -577,26 +788,34 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -609,33 +828,43 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -652,84 +881,196 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="6">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>99</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
+      <c r="C5" s="6">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>99</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
         <v>99</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
+      <c r="C7" s="6">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>99</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G8" s="5"/>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>99</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/转json/Tables/Item.xlsx
+++ b/转json/Tables/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06642B-7C2B-4EA6-A40E-44946ADA2D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308747BD-D2C0-49E6-9D43-65EEC400D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="2625" windowWidth="33930" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -182,13 +182,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>道具类型
-1：普通道具
-2：装备
-3：任务道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>canDestroy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -286,6 +279,64 @@
 为Functions表的ID
 -1表示不可使用
 有多个行为用&amp;分隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型
+1：普通道具
+2：任务道具
+3：射手装备
+4：法师装备
+5：战士装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手弓箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手法杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eapon/shooter/Bow_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon/fighter/Axe_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手斧头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon/wizard/Magic_Wand_Earth_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一把普通的弓箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一把普通的法杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一把普通的斧头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,7 +787,7 @@
     <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
     <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="28.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
@@ -763,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -772,10 +823,10 @@
         <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>34</v>
@@ -801,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
@@ -810,10 +861,10 @@
         <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2"/>
@@ -836,31 +887,31 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>35</v>
@@ -894,7 +945,7 @@
         <v>99</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -906,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -929,10 +980,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
@@ -941,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -961,7 +1012,7 @@
         <v>99</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -973,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -993,7 +1044,7 @@
         <v>99</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>19</v>
@@ -1005,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1025,7 +1076,7 @@
         <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1057,7 +1108,7 @@
         <v>99</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -1070,6 +1121,84 @@
       </c>
       <c r="L9" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/转json/Tables/Item.xlsx
+++ b/转json/Tables/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308747BD-D2C0-49E6-9D43-65EEC400D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB04EB7-782A-44AC-ABCF-000328DACD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2625" windowWidth="33930" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="2535" windowWidth="33930" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -283,60 +283,7 @@
   </si>
   <si>
     <t>道具类型
-1：普通道具
-2：任务道具
-3：射手装备
-4：法师装备
-5：战士装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手弓箭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手法杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eapon/shooter/Bow_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon/fighter/Axe_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手斧头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon/wizard/Magic_Wand_Earth_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一把普通的弓箭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一把普通的法杖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一把普通的斧头</t>
+1：普通道具</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,84 +1070,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
